--- a/DATA/chanel_junk_valid_2.xlsx
+++ b/DATA/chanel_junk_valid_2.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="zwFgOeG9eWpUV9WhBGUhSDcj9BVOexT3Vr+NT3gRrRo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="laL5WvUwaxwvyJa9oqEzA1l6SeW3uovJ5oCVxRAFqpY="/>
     </ext>
   </extLst>
 </workbook>
@@ -3246,12 +3246,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -3637,8 +3640,8 @@
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2">
-        <v>1.0</v>
+      <c r="C14" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -3659,8 +3662,8 @@
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2">
-        <v>1.0</v>
+      <c r="C16" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -3681,7 +3684,7 @@
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -3758,8 +3761,8 @@
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="2">
-        <v>0.0</v>
+      <c r="C25" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3923,8 +3926,8 @@
       <c r="B40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="2">
-        <v>1.0</v>
+      <c r="C40" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -3945,8 +3948,8 @@
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="2">
-        <v>1.0</v>
+      <c r="C42" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -4187,8 +4190,8 @@
       <c r="B64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="2">
-        <v>1.0</v>
+      <c r="C64" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -4385,8 +4388,8 @@
       <c r="B82" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="2">
-        <v>1.0</v>
+      <c r="C82" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -4470,7 +4473,7 @@
       <c r="A90" s="2">
         <v>88.0</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C90" s="2">
@@ -4528,8 +4531,8 @@
       <c r="B95" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="2">
-        <v>1.0</v>
+      <c r="C95" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
@@ -4657,7 +4660,7 @@
       <c r="A107" s="2">
         <v>105.0</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C107" s="2">
@@ -4671,8 +4674,8 @@
       <c r="B108" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="2">
-        <v>1.0</v>
+      <c r="C108" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
@@ -4682,8 +4685,8 @@
       <c r="B109" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="2">
-        <v>1.0</v>
+      <c r="C109" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
@@ -4693,8 +4696,8 @@
       <c r="B110" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C110" s="2">
-        <v>1.0</v>
+      <c r="C110" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
@@ -4748,8 +4751,8 @@
       <c r="B115" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="2">
-        <v>1.0</v>
+      <c r="C115" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
@@ -4800,7 +4803,7 @@
       <c r="A120" s="2">
         <v>118.0</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C120" s="2">
@@ -4836,8 +4839,8 @@
       <c r="B123" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C123" s="2">
-        <v>1.0</v>
+      <c r="C123" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
@@ -5276,8 +5279,8 @@
       <c r="B163" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C163" s="2">
-        <v>1.0</v>
+      <c r="C163" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
@@ -5493,7 +5496,7 @@
       <c r="A183" s="2">
         <v>181.0</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="5" t="s">
         <v>184</v>
       </c>
       <c r="C183" s="2">
@@ -5727,8 +5730,8 @@
       <c r="B204" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C204" s="2">
-        <v>1.0</v>
+      <c r="C204" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
@@ -5848,8 +5851,8 @@
       <c r="B215" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C215" s="2">
-        <v>0.0</v>
+      <c r="C215" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
@@ -6222,7 +6225,7 @@
       <c r="B249" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C249" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -6450,7 +6453,7 @@
       <c r="A270" s="2">
         <v>268.0</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" s="5" t="s">
         <v>269</v>
       </c>
       <c r="C270" s="2">
@@ -6519,8 +6522,8 @@
       <c r="B276" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C276" s="2">
-        <v>1.0</v>
+      <c r="C276" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
@@ -6860,8 +6863,8 @@
       <c r="B307" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C307" s="2">
-        <v>0.0</v>
+      <c r="C307" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
@@ -7124,8 +7127,8 @@
       <c r="B331" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C331" s="2">
-        <v>1.0</v>
+      <c r="C331" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
@@ -7176,7 +7179,7 @@
       <c r="A336" s="2">
         <v>334.0</v>
       </c>
-      <c r="B336" s="4" t="s">
+      <c r="B336" s="5" t="s">
         <v>332</v>
       </c>
       <c r="C336" s="2">
@@ -7212,8 +7215,8 @@
       <c r="B339" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C339" s="2">
-        <v>1.0</v>
+      <c r="C339" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
@@ -7789,10 +7792,10 @@
       <c r="A392" s="2">
         <v>390.0</v>
       </c>
-      <c r="B392" s="5" t="s">
+      <c r="B392" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C392" s="6">
+      <c r="C392" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -7800,10 +7803,10 @@
       <c r="A393" s="2">
         <v>391.0</v>
       </c>
-      <c r="B393" s="5" t="s">
+      <c r="B393" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C393" s="6">
+      <c r="C393" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -7811,10 +7814,10 @@
       <c r="A394" s="2">
         <v>392.0</v>
       </c>
-      <c r="B394" s="5" t="s">
+      <c r="B394" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C394" s="6">
+      <c r="C394" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -7822,10 +7825,10 @@
       <c r="A395" s="2">
         <v>393.0</v>
       </c>
-      <c r="B395" s="5" t="s">
+      <c r="B395" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C395" s="6">
+      <c r="C395" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -7833,10 +7836,10 @@
       <c r="A396" s="2">
         <v>394.0</v>
       </c>
-      <c r="B396" s="5" t="s">
+      <c r="B396" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C396" s="6">
+      <c r="C396" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -7844,10 +7847,10 @@
       <c r="A397" s="2">
         <v>395.0</v>
       </c>
-      <c r="B397" s="5" t="s">
+      <c r="B397" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C397" s="6">
+      <c r="C397" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -7855,10 +7858,10 @@
       <c r="A398" s="2">
         <v>396.0</v>
       </c>
-      <c r="B398" s="5" t="s">
+      <c r="B398" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C398" s="6">
+      <c r="C398" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -7866,10 +7869,10 @@
       <c r="A399" s="2">
         <v>397.0</v>
       </c>
-      <c r="B399" s="5" t="s">
+      <c r="B399" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C399" s="6">
+      <c r="C399" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -7877,10 +7880,10 @@
       <c r="A400" s="2">
         <v>398.0</v>
       </c>
-      <c r="B400" s="5" t="s">
+      <c r="B400" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C400" s="6">
+      <c r="C400" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -7888,10 +7891,10 @@
       <c r="A401" s="2">
         <v>399.0</v>
       </c>
-      <c r="B401" s="5" t="s">
+      <c r="B401" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C401" s="6">
+      <c r="C401" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -7899,10 +7902,10 @@
       <c r="A402" s="2">
         <v>400.0</v>
       </c>
-      <c r="B402" s="5" t="s">
+      <c r="B402" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C402" s="6">
+      <c r="C402" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -7910,10 +7913,10 @@
       <c r="A403" s="2">
         <v>401.0</v>
       </c>
-      <c r="B403" s="5" t="s">
+      <c r="B403" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C403" s="6">
+      <c r="C403" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -7921,10 +7924,10 @@
       <c r="A404" s="2">
         <v>402.0</v>
       </c>
-      <c r="B404" s="5" t="s">
+      <c r="B404" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C404" s="6">
+      <c r="C404" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -7932,10 +7935,10 @@
       <c r="A405" s="2">
         <v>403.0</v>
       </c>
-      <c r="B405" s="5" t="s">
+      <c r="B405" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C405" s="6">
+      <c r="C405" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -7943,10 +7946,10 @@
       <c r="A406" s="2">
         <v>404.0</v>
       </c>
-      <c r="B406" s="5" t="s">
+      <c r="B406" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C406" s="6">
+      <c r="C406" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -7954,10 +7957,10 @@
       <c r="A407" s="2">
         <v>405.0</v>
       </c>
-      <c r="B407" s="5" t="s">
+      <c r="B407" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C407" s="6">
+      <c r="C407" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -7965,10 +7968,10 @@
       <c r="A408" s="2">
         <v>406.0</v>
       </c>
-      <c r="B408" s="5" t="s">
+      <c r="B408" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C408" s="6">
+      <c r="C408" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -7976,10 +7979,10 @@
       <c r="A409" s="2">
         <v>407.0</v>
       </c>
-      <c r="B409" s="5" t="s">
+      <c r="B409" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C409" s="6">
+      <c r="C409" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -7987,10 +7990,10 @@
       <c r="A410" s="2">
         <v>408.0</v>
       </c>
-      <c r="B410" s="5" t="s">
+      <c r="B410" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C410" s="6">
+      <c r="C410" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -7998,10 +8001,10 @@
       <c r="A411" s="2">
         <v>409.0</v>
       </c>
-      <c r="B411" s="5" t="s">
+      <c r="B411" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C411" s="6">
+      <c r="C411" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8009,10 +8012,10 @@
       <c r="A412" s="2">
         <v>410.0</v>
       </c>
-      <c r="B412" s="5" t="s">
+      <c r="B412" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C412" s="6">
+      <c r="C412" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8020,10 +8023,10 @@
       <c r="A413" s="2">
         <v>411.0</v>
       </c>
-      <c r="B413" s="5" t="s">
+      <c r="B413" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C413" s="6">
+      <c r="C413" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8031,10 +8034,10 @@
       <c r="A414" s="2">
         <v>412.0</v>
       </c>
-      <c r="B414" s="5" t="s">
+      <c r="B414" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C414" s="6">
+      <c r="C414" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8042,10 +8045,10 @@
       <c r="A415" s="2">
         <v>413.0</v>
       </c>
-      <c r="B415" s="5" t="s">
+      <c r="B415" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C415" s="6">
+      <c r="C415" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8053,10 +8056,10 @@
       <c r="A416" s="2">
         <v>414.0</v>
       </c>
-      <c r="B416" s="5" t="s">
+      <c r="B416" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C416" s="6">
+      <c r="C416" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8064,10 +8067,10 @@
       <c r="A417" s="2">
         <v>415.0</v>
       </c>
-      <c r="B417" s="5" t="s">
+      <c r="B417" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C417" s="6">
+      <c r="C417" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8075,10 +8078,10 @@
       <c r="A418" s="2">
         <v>416.0</v>
       </c>
-      <c r="B418" s="5" t="s">
+      <c r="B418" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C418" s="6">
+      <c r="C418" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8086,10 +8089,10 @@
       <c r="A419" s="2">
         <v>417.0</v>
       </c>
-      <c r="B419" s="5" t="s">
+      <c r="B419" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C419" s="6">
+      <c r="C419" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8097,10 +8100,10 @@
       <c r="A420" s="2">
         <v>418.0</v>
       </c>
-      <c r="B420" s="5" t="s">
+      <c r="B420" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C420" s="6">
+      <c r="C420" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8108,21 +8111,21 @@
       <c r="A421" s="2">
         <v>419.0</v>
       </c>
-      <c r="B421" s="5" t="s">
+      <c r="B421" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C421" s="6">
-        <v>1.0</v>
+      <c r="C421" s="7">
+        <v>0.0</v>
       </c>
     </row>
     <row r="422" ht="15.75" customHeight="1">
       <c r="A422" s="2">
         <v>420.0</v>
       </c>
-      <c r="B422" s="5" t="s">
+      <c r="B422" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C422" s="6">
+      <c r="C422" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8130,10 +8133,10 @@
       <c r="A423" s="2">
         <v>421.0</v>
       </c>
-      <c r="B423" s="5" t="s">
+      <c r="B423" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C423" s="6">
+      <c r="C423" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8141,10 +8144,10 @@
       <c r="A424" s="2">
         <v>422.0</v>
       </c>
-      <c r="B424" s="7" t="s">
+      <c r="B424" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C424" s="6">
+      <c r="C424" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8152,10 +8155,10 @@
       <c r="A425" s="2">
         <v>423.0</v>
       </c>
-      <c r="B425" s="5" t="s">
+      <c r="B425" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C425" s="6">
+      <c r="C425" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8163,10 +8166,10 @@
       <c r="A426" s="2">
         <v>424.0</v>
       </c>
-      <c r="B426" s="5" t="s">
+      <c r="B426" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C426" s="6">
+      <c r="C426" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8174,10 +8177,10 @@
       <c r="A427" s="2">
         <v>425.0</v>
       </c>
-      <c r="B427" s="5" t="s">
+      <c r="B427" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C427" s="6">
+      <c r="C427" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8185,10 +8188,10 @@
       <c r="A428" s="2">
         <v>426.0</v>
       </c>
-      <c r="B428" s="5" t="s">
+      <c r="B428" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C428" s="6">
+      <c r="C428" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8196,10 +8199,10 @@
       <c r="A429" s="2">
         <v>427.0</v>
       </c>
-      <c r="B429" s="5" t="s">
+      <c r="B429" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C429" s="6">
+      <c r="C429" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8207,10 +8210,10 @@
       <c r="A430" s="2">
         <v>428.0</v>
       </c>
-      <c r="B430" s="5" t="s">
+      <c r="B430" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C430" s="6">
+      <c r="C430" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8218,10 +8221,10 @@
       <c r="A431" s="2">
         <v>429.0</v>
       </c>
-      <c r="B431" s="5" t="s">
+      <c r="B431" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C431" s="6">
+      <c r="C431" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8229,10 +8232,10 @@
       <c r="A432" s="2">
         <v>430.0</v>
       </c>
-      <c r="B432" s="5" t="s">
+      <c r="B432" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C432" s="6">
+      <c r="C432" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8240,10 +8243,10 @@
       <c r="A433" s="2">
         <v>431.0</v>
       </c>
-      <c r="B433" s="5" t="s">
+      <c r="B433" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C433" s="6">
+      <c r="C433" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8251,10 +8254,10 @@
       <c r="A434" s="2">
         <v>432.0</v>
       </c>
-      <c r="B434" s="5" t="s">
+      <c r="B434" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C434" s="6">
+      <c r="C434" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8262,10 +8265,10 @@
       <c r="A435" s="2">
         <v>433.0</v>
       </c>
-      <c r="B435" s="5" t="s">
+      <c r="B435" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C435" s="6">
+      <c r="C435" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8273,10 +8276,10 @@
       <c r="A436" s="2">
         <v>434.0</v>
       </c>
-      <c r="B436" s="7" t="s">
+      <c r="B436" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C436" s="6">
+      <c r="C436" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8284,10 +8287,10 @@
       <c r="A437" s="2">
         <v>435.0</v>
       </c>
-      <c r="B437" s="5" t="s">
+      <c r="B437" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C437" s="6">
+      <c r="C437" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8295,21 +8298,21 @@
       <c r="A438" s="2">
         <v>436.0</v>
       </c>
-      <c r="B438" s="7" t="s">
+      <c r="B438" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C438" s="6">
-        <v>1.0</v>
+      <c r="C438" s="7">
+        <v>0.0</v>
       </c>
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="2">
         <v>437.0</v>
       </c>
-      <c r="B439" s="5" t="s">
+      <c r="B439" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C439" s="6">
+      <c r="C439" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8317,10 +8320,10 @@
       <c r="A440" s="2">
         <v>438.0</v>
       </c>
-      <c r="B440" s="5" t="s">
+      <c r="B440" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C440" s="6">
+      <c r="C440" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8328,10 +8331,10 @@
       <c r="A441" s="2">
         <v>439.0</v>
       </c>
-      <c r="B441" s="5" t="s">
+      <c r="B441" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C441" s="6">
+      <c r="C441" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8339,10 +8342,10 @@
       <c r="A442" s="2">
         <v>440.0</v>
       </c>
-      <c r="B442" s="5" t="s">
+      <c r="B442" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C442" s="6">
+      <c r="C442" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8350,10 +8353,10 @@
       <c r="A443" s="2">
         <v>441.0</v>
       </c>
-      <c r="B443" s="7" t="s">
+      <c r="B443" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C443" s="6">
+      <c r="C443" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8361,10 +8364,10 @@
       <c r="A444" s="2">
         <v>442.0</v>
       </c>
-      <c r="B444" s="5" t="s">
+      <c r="B444" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C444" s="6">
+      <c r="C444" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8372,10 +8375,10 @@
       <c r="A445" s="2">
         <v>443.0</v>
       </c>
-      <c r="B445" s="5" t="s">
+      <c r="B445" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C445" s="6">
+      <c r="C445" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8383,32 +8386,32 @@
       <c r="A446" s="2">
         <v>444.0</v>
       </c>
-      <c r="B446" s="7" t="s">
+      <c r="B446" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C446" s="6">
-        <v>0.0</v>
+      <c r="C446" s="7">
+        <v>1.0</v>
       </c>
     </row>
     <row r="447" ht="15.75" customHeight="1">
       <c r="A447" s="2">
         <v>445.0</v>
       </c>
-      <c r="B447" s="5" t="s">
+      <c r="B447" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C447" s="6">
-        <v>0.0</v>
+      <c r="C447" s="7">
+        <v>1.0</v>
       </c>
     </row>
     <row r="448" ht="15.75" customHeight="1">
       <c r="A448" s="2">
         <v>446.0</v>
       </c>
-      <c r="B448" s="5" t="s">
+      <c r="B448" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C448" s="6">
+      <c r="C448" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8416,10 +8419,10 @@
       <c r="A449" s="2">
         <v>447.0</v>
       </c>
-      <c r="B449" s="5" t="s">
+      <c r="B449" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C449" s="6">
+      <c r="C449" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8427,10 +8430,10 @@
       <c r="A450" s="2">
         <v>448.0</v>
       </c>
-      <c r="B450" s="5" t="s">
+      <c r="B450" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C450" s="6">
+      <c r="C450" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8438,10 +8441,10 @@
       <c r="A451" s="2">
         <v>449.0</v>
       </c>
-      <c r="B451" s="5" t="s">
+      <c r="B451" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C451" s="6">
+      <c r="C451" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8449,10 +8452,10 @@
       <c r="A452" s="2">
         <v>450.0</v>
       </c>
-      <c r="B452" s="7" t="s">
+      <c r="B452" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C452" s="6">
+      <c r="C452" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8460,10 +8463,10 @@
       <c r="A453" s="2">
         <v>451.0</v>
       </c>
-      <c r="B453" s="5" t="s">
+      <c r="B453" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C453" s="6">
+      <c r="C453" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8471,10 +8474,10 @@
       <c r="A454" s="2">
         <v>452.0</v>
       </c>
-      <c r="B454" s="5" t="s">
+      <c r="B454" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C454" s="6">
+      <c r="C454" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8482,10 +8485,10 @@
       <c r="A455" s="2">
         <v>453.0</v>
       </c>
-      <c r="B455" s="5" t="s">
+      <c r="B455" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C455" s="6">
+      <c r="C455" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8493,10 +8496,10 @@
       <c r="A456" s="2">
         <v>454.0</v>
       </c>
-      <c r="B456" s="5" t="s">
+      <c r="B456" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C456" s="6">
+      <c r="C456" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8504,10 +8507,10 @@
       <c r="A457" s="2">
         <v>455.0</v>
       </c>
-      <c r="B457" s="5" t="s">
+      <c r="B457" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C457" s="6">
+      <c r="C457" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8515,10 +8518,10 @@
       <c r="A458" s="2">
         <v>456.0</v>
       </c>
-      <c r="B458" s="5" t="s">
+      <c r="B458" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C458" s="6">
+      <c r="C458" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8526,10 +8529,10 @@
       <c r="A459" s="2">
         <v>457.0</v>
       </c>
-      <c r="B459" s="5" t="s">
+      <c r="B459" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C459" s="6">
+      <c r="C459" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8537,10 +8540,10 @@
       <c r="A460" s="2">
         <v>458.0</v>
       </c>
-      <c r="B460" s="5" t="s">
+      <c r="B460" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C460" s="6">
+      <c r="C460" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8548,10 +8551,10 @@
       <c r="A461" s="2">
         <v>459.0</v>
       </c>
-      <c r="B461" s="5" t="s">
+      <c r="B461" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C461" s="6">
+      <c r="C461" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8559,10 +8562,10 @@
       <c r="A462" s="2">
         <v>460.0</v>
       </c>
-      <c r="B462" s="5" t="s">
+      <c r="B462" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C462" s="6">
+      <c r="C462" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8570,10 +8573,10 @@
       <c r="A463" s="2">
         <v>461.0</v>
       </c>
-      <c r="B463" s="5" t="s">
+      <c r="B463" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C463" s="6">
+      <c r="C463" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8581,10 +8584,10 @@
       <c r="A464" s="2">
         <v>462.0</v>
       </c>
-      <c r="B464" s="5" t="s">
+      <c r="B464" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C464" s="6">
+      <c r="C464" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8592,10 +8595,10 @@
       <c r="A465" s="2">
         <v>463.0</v>
       </c>
-      <c r="B465" s="5" t="s">
+      <c r="B465" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C465" s="6">
+      <c r="C465" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8603,10 +8606,10 @@
       <c r="A466" s="2">
         <v>464.0</v>
       </c>
-      <c r="B466" s="5" t="s">
+      <c r="B466" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C466" s="6">
+      <c r="C466" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8614,10 +8617,10 @@
       <c r="A467" s="2">
         <v>465.0</v>
       </c>
-      <c r="B467" s="5" t="s">
+      <c r="B467" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C467" s="6">
+      <c r="C467" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8625,10 +8628,10 @@
       <c r="A468" s="2">
         <v>466.0</v>
       </c>
-      <c r="B468" s="5" t="s">
+      <c r="B468" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C468" s="6">
+      <c r="C468" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8636,10 +8639,10 @@
       <c r="A469" s="2">
         <v>467.0</v>
       </c>
-      <c r="B469" s="5" t="s">
+      <c r="B469" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C469" s="6">
+      <c r="C469" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8647,10 +8650,10 @@
       <c r="A470" s="2">
         <v>468.0</v>
       </c>
-      <c r="B470" s="5" t="s">
+      <c r="B470" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C470" s="6">
+      <c r="C470" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8658,10 +8661,10 @@
       <c r="A471" s="2">
         <v>469.0</v>
       </c>
-      <c r="B471" s="5" t="s">
+      <c r="B471" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C471" s="6">
+      <c r="C471" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8669,10 +8672,10 @@
       <c r="A472" s="2">
         <v>470.0</v>
       </c>
-      <c r="B472" s="5" t="s">
+      <c r="B472" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C472" s="6">
+      <c r="C472" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8680,10 +8683,10 @@
       <c r="A473" s="2">
         <v>471.0</v>
       </c>
-      <c r="B473" s="5" t="s">
+      <c r="B473" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C473" s="6">
+      <c r="C473" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8691,10 +8694,10 @@
       <c r="A474" s="2">
         <v>472.0</v>
       </c>
-      <c r="B474" s="5" t="s">
+      <c r="B474" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="C474" s="6">
+      <c r="C474" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8702,10 +8705,10 @@
       <c r="A475" s="2">
         <v>473.0</v>
       </c>
-      <c r="B475" s="5" t="s">
+      <c r="B475" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C475" s="6">
+      <c r="C475" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8713,10 +8716,10 @@
       <c r="A476" s="2">
         <v>474.0</v>
       </c>
-      <c r="B476" s="5" t="s">
+      <c r="B476" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C476" s="6">
+      <c r="C476" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8724,10 +8727,10 @@
       <c r="A477" s="2">
         <v>475.0</v>
       </c>
-      <c r="B477" s="5" t="s">
+      <c r="B477" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="C477" s="6">
+      <c r="C477" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8735,10 +8738,10 @@
       <c r="A478" s="2">
         <v>476.0</v>
       </c>
-      <c r="B478" s="5" t="s">
+      <c r="B478" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C478" s="6">
+      <c r="C478" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8746,10 +8749,10 @@
       <c r="A479" s="2">
         <v>477.0</v>
       </c>
-      <c r="B479" s="5" t="s">
+      <c r="B479" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C479" s="6">
+      <c r="C479" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8757,10 +8760,10 @@
       <c r="A480" s="2">
         <v>478.0</v>
       </c>
-      <c r="B480" s="5" t="s">
+      <c r="B480" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C480" s="6">
+      <c r="C480" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8768,10 +8771,10 @@
       <c r="A481" s="2">
         <v>479.0</v>
       </c>
-      <c r="B481" s="5" t="s">
+      <c r="B481" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C481" s="6">
+      <c r="C481" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8779,10 +8782,10 @@
       <c r="A482" s="2">
         <v>480.0</v>
       </c>
-      <c r="B482" s="5" t="s">
+      <c r="B482" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C482" s="6">
+      <c r="C482" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8790,10 +8793,10 @@
       <c r="A483" s="2">
         <v>481.0</v>
       </c>
-      <c r="B483" s="5" t="s">
+      <c r="B483" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C483" s="6">
+      <c r="C483" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8801,10 +8804,10 @@
       <c r="A484" s="2">
         <v>482.0</v>
       </c>
-      <c r="B484" s="5" t="s">
+      <c r="B484" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C484" s="6">
+      <c r="C484" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8812,10 +8815,10 @@
       <c r="A485" s="2">
         <v>483.0</v>
       </c>
-      <c r="B485" s="7" t="s">
+      <c r="B485" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C485" s="6">
+      <c r="C485" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8823,10 +8826,10 @@
       <c r="A486" s="2">
         <v>484.0</v>
       </c>
-      <c r="B486" s="5" t="s">
+      <c r="B486" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C486" s="6">
+      <c r="C486" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8834,10 +8837,10 @@
       <c r="A487" s="2">
         <v>485.0</v>
       </c>
-      <c r="B487" s="7" t="s">
+      <c r="B487" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="C487" s="6">
+      <c r="C487" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8845,10 +8848,10 @@
       <c r="A488" s="2">
         <v>486.0</v>
       </c>
-      <c r="B488" s="5" t="s">
+      <c r="B488" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C488" s="6">
+      <c r="C488" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8856,21 +8859,21 @@
       <c r="A489" s="2">
         <v>487.0</v>
       </c>
-      <c r="B489" s="5" t="s">
+      <c r="B489" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C489" s="6">
-        <v>1.0</v>
+      <c r="C489" s="7">
+        <v>0.0</v>
       </c>
     </row>
     <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="2">
         <v>488.0</v>
       </c>
-      <c r="B490" s="5" t="s">
+      <c r="B490" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C490" s="6">
+      <c r="C490" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8878,10 +8881,10 @@
       <c r="A491" s="2">
         <v>489.0</v>
       </c>
-      <c r="B491" s="5" t="s">
+      <c r="B491" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C491" s="6">
+      <c r="C491" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8889,10 +8892,10 @@
       <c r="A492" s="2">
         <v>490.0</v>
       </c>
-      <c r="B492" s="5" t="s">
+      <c r="B492" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C492" s="6">
+      <c r="C492" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8900,10 +8903,10 @@
       <c r="A493" s="2">
         <v>491.0</v>
       </c>
-      <c r="B493" s="5" t="s">
+      <c r="B493" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C493" s="6">
+      <c r="C493" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8911,10 +8914,10 @@
       <c r="A494" s="2">
         <v>492.0</v>
       </c>
-      <c r="B494" s="5" t="s">
+      <c r="B494" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C494" s="6">
+      <c r="C494" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8922,32 +8925,32 @@
       <c r="A495" s="2">
         <v>493.0</v>
       </c>
-      <c r="B495" s="5" t="s">
+      <c r="B495" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C495" s="6">
-        <v>1.0</v>
+      <c r="C495" s="7">
+        <v>0.0</v>
       </c>
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="2">
         <v>494.0</v>
       </c>
-      <c r="B496" s="5" t="s">
+      <c r="B496" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C496" s="6">
-        <v>0.0</v>
+      <c r="C496" s="7">
+        <v>1.0</v>
       </c>
     </row>
     <row r="497" ht="15.75" customHeight="1">
       <c r="A497" s="2">
         <v>495.0</v>
       </c>
-      <c r="B497" s="7" t="s">
+      <c r="B497" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="C497" s="6">
+      <c r="C497" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8955,10 +8958,10 @@
       <c r="A498" s="2">
         <v>496.0</v>
       </c>
-      <c r="B498" s="7" t="s">
+      <c r="B498" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C498" s="6">
+      <c r="C498" s="7">
         <v>1.0</v>
       </c>
     </row>
@@ -8966,10 +8969,10 @@
       <c r="A499" s="2">
         <v>497.0</v>
       </c>
-      <c r="B499" s="5" t="s">
+      <c r="B499" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C499" s="6">
+      <c r="C499" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8977,10 +8980,10 @@
       <c r="A500" s="2">
         <v>498.0</v>
       </c>
-      <c r="B500" s="5" t="s">
+      <c r="B500" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C500" s="6">
+      <c r="C500" s="7">
         <v>0.0</v>
       </c>
     </row>
@@ -8988,10 +8991,10 @@
       <c r="A501" s="2">
         <v>499.0</v>
       </c>
-      <c r="B501" s="5" t="s">
+      <c r="B501" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C501" s="6">
+      <c r="C501" s="7">
         <v>0.0</v>
       </c>
     </row>

--- a/DATA/chanel_junk_valid_2.xlsx
+++ b/DATA/chanel_junk_valid_2.xlsx
@@ -5,11 +5,13 @@
   <sheets>
     <sheet state="visible" name="chanel_junk_valid" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">chanel_junk_valid!$C$1:$C$1000</definedName>
+  </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="laL5WvUwaxwvyJa9oqEzA1l6SeW3uovJ5oCVxRAFqpY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="j/3i9E9serhN6A2RZGxqYQdGwiStT/8oRe9Lugt796A="/>
     </ext>
   </extLst>
 </workbook>
@@ -3501,7 +3503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" hidden="1" customHeight="1">
       <c r="A2" s="2">
         <v>0.0</v>
       </c>
@@ -3512,18 +3514,18 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" ht="15.75" hidden="1" customHeight="1">
       <c r="A3" s="2">
         <v>1.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+      <c r="C3" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" hidden="1" customHeight="1">
       <c r="A4" s="2">
         <v>2.0</v>
       </c>
@@ -3534,18 +3536,18 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" ht="15.75" hidden="1" customHeight="1">
       <c r="A5" s="2">
         <v>3.0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+      <c r="C5" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" hidden="1" customHeight="1">
       <c r="A6" s="2">
         <v>4.0</v>
       </c>
@@ -3578,7 +3580,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" ht="15.75" hidden="1" customHeight="1">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
@@ -3589,7 +3591,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" ht="15.75" hidden="1" customHeight="1">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
@@ -3600,7 +3602,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" ht="15.75" hidden="1" customHeight="1">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
@@ -3611,7 +3613,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" ht="15.75" hidden="1" customHeight="1">
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
@@ -3622,7 +3624,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" ht="15.75" hidden="1" customHeight="1">
       <c r="A13" s="2">
         <v>11.0</v>
       </c>
@@ -3633,7 +3635,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" ht="15.75" hidden="1" customHeight="1">
       <c r="A14" s="2">
         <v>12.0</v>
       </c>
@@ -3644,7 +3646,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" ht="15.75" hidden="1" customHeight="1">
       <c r="A15" s="2">
         <v>13.0</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" ht="15.75" hidden="1" customHeight="1">
       <c r="A16" s="2">
         <v>14.0</v>
       </c>
@@ -3677,7 +3679,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" ht="15.75" hidden="1" customHeight="1">
       <c r="A18" s="2">
         <v>16.0</v>
       </c>
@@ -3710,7 +3712,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="2">
         <v>19.0</v>
       </c>
@@ -3721,7 +3723,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" ht="15.75" hidden="1" customHeight="1">
       <c r="A22" s="2">
         <v>20.0</v>
       </c>
@@ -3743,7 +3745,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" ht="15.75" hidden="1" customHeight="1">
       <c r="A24" s="2">
         <v>22.0</v>
       </c>
@@ -3798,7 +3800,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="2">
         <v>27.0</v>
       </c>
@@ -3820,7 +3822,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" ht="15.75" hidden="1" customHeight="1">
       <c r="A31" s="2">
         <v>29.0</v>
       </c>
@@ -3842,7 +3844,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" ht="15.75" hidden="1" customHeight="1">
       <c r="A33" s="2">
         <v>31.0</v>
       </c>
@@ -3853,7 +3855,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" ht="15.75" hidden="1" customHeight="1">
       <c r="A34" s="2">
         <v>32.0</v>
       </c>
@@ -3875,7 +3877,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" ht="15.75" hidden="1" customHeight="1">
       <c r="A36" s="2">
         <v>34.0</v>
       </c>
@@ -3908,7 +3910,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" ht="15.75" hidden="1" customHeight="1">
       <c r="A39" s="2">
         <v>37.0</v>
       </c>
@@ -3919,7 +3921,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" ht="15.75" hidden="1" customHeight="1">
       <c r="A40" s="2">
         <v>38.0</v>
       </c>
@@ -3930,7 +3932,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" ht="15.75" hidden="1" customHeight="1">
       <c r="A41" s="2">
         <v>39.0</v>
       </c>
@@ -3941,7 +3943,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" ht="15.75" hidden="1" customHeight="1">
       <c r="A42" s="2">
         <v>40.0</v>
       </c>
@@ -3952,7 +3954,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" ht="15.75" hidden="1" customHeight="1">
       <c r="A43" s="2">
         <v>41.0</v>
       </c>
@@ -3963,7 +3965,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" ht="15.75" hidden="1" customHeight="1">
       <c r="A44" s="2">
         <v>42.0</v>
       </c>
@@ -3996,7 +3998,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" ht="15.75" hidden="1" customHeight="1">
       <c r="A47" s="2">
         <v>45.0</v>
       </c>
@@ -4007,7 +4009,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" ht="15.75" hidden="1" customHeight="1">
       <c r="A48" s="2">
         <v>46.0</v>
       </c>
@@ -4018,7 +4020,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="2">
         <v>47.0</v>
       </c>
@@ -4040,7 +4042,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" ht="15.75" hidden="1" customHeight="1">
       <c r="A51" s="2">
         <v>49.0</v>
       </c>
@@ -4084,7 +4086,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" ht="15.75" hidden="1" customHeight="1">
       <c r="A55" s="2">
         <v>53.0</v>
       </c>
@@ -4095,7 +4097,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" ht="15.75" hidden="1" customHeight="1">
       <c r="A56" s="2">
         <v>54.0</v>
       </c>
@@ -4106,7 +4108,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" ht="15.75" hidden="1" customHeight="1">
       <c r="A57" s="2">
         <v>55.0</v>
       </c>
@@ -4117,7 +4119,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" ht="15.75" hidden="1" customHeight="1">
       <c r="A58" s="2">
         <v>56.0</v>
       </c>
@@ -4128,7 +4130,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" ht="15.75" hidden="1" customHeight="1">
       <c r="A59" s="2">
         <v>57.0</v>
       </c>
@@ -4139,7 +4141,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" ht="15.75" hidden="1" customHeight="1">
       <c r="A60" s="2">
         <v>58.0</v>
       </c>
@@ -4150,7 +4152,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" ht="15.75" hidden="1" customHeight="1">
       <c r="A61" s="2">
         <v>59.0</v>
       </c>
@@ -4183,7 +4185,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" ht="15.75" hidden="1" customHeight="1">
       <c r="A64" s="2">
         <v>62.0</v>
       </c>
@@ -4194,7 +4196,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" ht="15.75" hidden="1" customHeight="1">
       <c r="A65" s="2">
         <v>63.0</v>
       </c>
@@ -4216,7 +4218,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" ht="15.75" hidden="1" customHeight="1">
       <c r="A67" s="2">
         <v>65.0</v>
       </c>
@@ -4227,7 +4229,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" ht="15.75" hidden="1" customHeight="1">
       <c r="A68" s="2">
         <v>66.0</v>
       </c>
@@ -4260,7 +4262,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" ht="15.75" hidden="1" customHeight="1">
       <c r="A71" s="2">
         <v>69.0</v>
       </c>
@@ -4271,7 +4273,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" ht="15.75" hidden="1" customHeight="1">
       <c r="A72" s="2">
         <v>70.0</v>
       </c>
@@ -4293,7 +4295,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" ht="15.75" hidden="1" customHeight="1">
       <c r="A74" s="2">
         <v>72.0</v>
       </c>
@@ -4315,7 +4317,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" ht="15.75" hidden="1" customHeight="1">
       <c r="A76" s="2">
         <v>74.0</v>
       </c>
@@ -4348,7 +4350,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" ht="15.75" hidden="1" customHeight="1">
       <c r="A79" s="2">
         <v>77.0</v>
       </c>
@@ -4370,7 +4372,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" ht="15.75" hidden="1" customHeight="1">
       <c r="A81" s="2">
         <v>79.0</v>
       </c>
@@ -4381,7 +4383,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" ht="15.75" hidden="1" customHeight="1">
       <c r="A82" s="2">
         <v>80.0</v>
       </c>
@@ -4392,7 +4394,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" ht="15.75" hidden="1" customHeight="1">
       <c r="A83" s="2">
         <v>81.0</v>
       </c>
@@ -4403,7 +4405,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" ht="15.75" hidden="1" customHeight="1">
       <c r="A84" s="2">
         <v>82.0</v>
       </c>
@@ -4425,7 +4427,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" ht="15.75" hidden="1" customHeight="1">
       <c r="A86" s="2">
         <v>84.0</v>
       </c>
@@ -4436,7 +4438,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" ht="15.75" hidden="1" customHeight="1">
       <c r="A87" s="2">
         <v>85.0</v>
       </c>
@@ -4458,7 +4460,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" ht="15.75" hidden="1" customHeight="1">
       <c r="A89" s="2">
         <v>87.0</v>
       </c>
@@ -4480,7 +4482,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" ht="15.75" hidden="1" customHeight="1">
       <c r="A91" s="2">
         <v>89.0</v>
       </c>
@@ -4491,7 +4493,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" ht="15.75" hidden="1" customHeight="1">
       <c r="A92" s="2">
         <v>90.0</v>
       </c>
@@ -4502,7 +4504,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" ht="15.75" hidden="1" customHeight="1">
       <c r="A93" s="2">
         <v>91.0</v>
       </c>
@@ -4513,7 +4515,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" ht="15.75" hidden="1" customHeight="1">
       <c r="A94" s="2">
         <v>92.0</v>
       </c>
@@ -4524,7 +4526,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" ht="15.75" hidden="1" customHeight="1">
       <c r="A95" s="2">
         <v>93.0</v>
       </c>
@@ -4535,7 +4537,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" ht="15.75" hidden="1" customHeight="1">
       <c r="A96" s="2">
         <v>94.0</v>
       </c>
@@ -4546,7 +4548,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" ht="15.75" hidden="1" customHeight="1">
       <c r="A97" s="2">
         <v>95.0</v>
       </c>
@@ -4568,7 +4570,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" ht="15.75" hidden="1" customHeight="1">
       <c r="A99" s="2">
         <v>97.0</v>
       </c>
@@ -4579,7 +4581,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" ht="15.75" hidden="1" customHeight="1">
       <c r="A100" s="2">
         <v>98.0</v>
       </c>
@@ -4590,7 +4592,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" ht="15.75" hidden="1" customHeight="1">
       <c r="A101" s="2">
         <v>99.0</v>
       </c>
@@ -4601,7 +4603,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" ht="15.75" hidden="1" customHeight="1">
       <c r="A102" s="2">
         <v>100.0</v>
       </c>
@@ -4612,7 +4614,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" ht="15.75" hidden="1" customHeight="1">
       <c r="A103" s="2">
         <v>101.0</v>
       </c>
@@ -4623,7 +4625,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" ht="15.75" hidden="1" customHeight="1">
       <c r="A104" s="2">
         <v>102.0</v>
       </c>
@@ -4645,7 +4647,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" ht="15.75" hidden="1" customHeight="1">
       <c r="A106" s="2">
         <v>104.0</v>
       </c>
@@ -4667,7 +4669,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" ht="15.75" hidden="1" customHeight="1">
       <c r="A108" s="2">
         <v>106.0</v>
       </c>
@@ -4678,7 +4680,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" ht="15.75" hidden="1" customHeight="1">
       <c r="A109" s="2">
         <v>107.0</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" ht="15.75" hidden="1" customHeight="1">
       <c r="A110" s="2">
         <v>108.0</v>
       </c>
@@ -4722,7 +4724,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" ht="15.75" hidden="1" customHeight="1">
       <c r="A113" s="2">
         <v>111.0</v>
       </c>
@@ -4733,7 +4735,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" ht="15.75" hidden="1" customHeight="1">
       <c r="A114" s="2">
         <v>112.0</v>
       </c>
@@ -4744,7 +4746,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" ht="15.75" hidden="1" customHeight="1">
       <c r="A115" s="2">
         <v>113.0</v>
       </c>
@@ -4766,7 +4768,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="2">
         <v>115.0</v>
       </c>
@@ -4810,7 +4812,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" ht="15.75" hidden="1" customHeight="1">
       <c r="A121" s="2">
         <v>119.0</v>
       </c>
@@ -4832,7 +4834,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" ht="15.75" hidden="1" customHeight="1">
       <c r="A123" s="2">
         <v>121.0</v>
       </c>
@@ -4843,7 +4845,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" ht="15.75" hidden="1" customHeight="1">
       <c r="A124" s="2">
         <v>122.0</v>
       </c>
@@ -4854,7 +4856,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" ht="15.75" hidden="1" customHeight="1">
       <c r="A125" s="2">
         <v>123.0</v>
       </c>
@@ -4865,7 +4867,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" ht="15.75" hidden="1" customHeight="1">
       <c r="A126" s="2">
         <v>124.0</v>
       </c>
@@ -4876,7 +4878,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" ht="15.75" hidden="1" customHeight="1">
       <c r="A127" s="2">
         <v>125.0</v>
       </c>
@@ -4887,7 +4889,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" ht="15.75" hidden="1" customHeight="1">
       <c r="A128" s="2">
         <v>126.0</v>
       </c>
@@ -4898,7 +4900,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" ht="15.75" hidden="1" customHeight="1">
       <c r="A129" s="2">
         <v>127.0</v>
       </c>
@@ -4931,7 +4933,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" ht="15.75" hidden="1" customHeight="1">
       <c r="A132" s="2">
         <v>130.0</v>
       </c>
@@ -4942,7 +4944,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" ht="15.75" hidden="1" customHeight="1">
       <c r="A133" s="2">
         <v>131.0</v>
       </c>
@@ -4953,7 +4955,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" ht="15.75" hidden="1" customHeight="1">
       <c r="A134" s="2">
         <v>132.0</v>
       </c>
@@ -4964,7 +4966,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" ht="15.75" hidden="1" customHeight="1">
       <c r="A135" s="2">
         <v>133.0</v>
       </c>
@@ -4975,7 +4977,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" ht="15.75" hidden="1" customHeight="1">
       <c r="A136" s="2">
         <v>134.0</v>
       </c>
@@ -4997,7 +4999,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" ht="15.75" hidden="1" customHeight="1">
       <c r="A138" s="2">
         <v>136.0</v>
       </c>
@@ -5008,7 +5010,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" ht="15.75" hidden="1" customHeight="1">
       <c r="A139" s="2">
         <v>137.0</v>
       </c>
@@ -5019,7 +5021,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" ht="15.75" hidden="1" customHeight="1">
       <c r="A140" s="2">
         <v>138.0</v>
       </c>
@@ -5030,7 +5032,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" ht="15.75" hidden="1" customHeight="1">
       <c r="A141" s="2">
         <v>139.0</v>
       </c>
@@ -5041,7 +5043,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" ht="15.75" hidden="1" customHeight="1">
       <c r="A142" s="2">
         <v>140.0</v>
       </c>
@@ -5085,7 +5087,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" ht="15.75" hidden="1" customHeight="1">
       <c r="A146" s="2">
         <v>144.0</v>
       </c>
@@ -5107,7 +5109,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" ht="15.75" hidden="1" customHeight="1">
       <c r="A148" s="2">
         <v>146.0</v>
       </c>
@@ -5129,7 +5131,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" ht="15.75" hidden="1" customHeight="1">
       <c r="A150" s="2">
         <v>148.0</v>
       </c>
@@ -5162,7 +5164,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" ht="15.75" hidden="1" customHeight="1">
       <c r="A153" s="2">
         <v>151.0</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" ht="15.75" hidden="1" customHeight="1">
       <c r="A156" s="2">
         <v>154.0</v>
       </c>
@@ -5206,7 +5208,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" ht="15.75" hidden="1" customHeight="1">
       <c r="A157" s="2">
         <v>155.0</v>
       </c>
@@ -5228,7 +5230,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" ht="15.75" hidden="1" customHeight="1">
       <c r="A159" s="2">
         <v>157.0</v>
       </c>
@@ -5239,7 +5241,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" ht="15.75" hidden="1" customHeight="1">
       <c r="A160" s="2">
         <v>158.0</v>
       </c>
@@ -5250,7 +5252,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" ht="15.75" hidden="1" customHeight="1">
       <c r="A161" s="2">
         <v>159.0</v>
       </c>
@@ -5261,7 +5263,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" ht="15.75" hidden="1" customHeight="1">
       <c r="A162" s="2">
         <v>160.0</v>
       </c>
@@ -5272,7 +5274,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" ht="15.75" hidden="1" customHeight="1">
       <c r="A163" s="2">
         <v>161.0</v>
       </c>
@@ -5283,7 +5285,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" ht="15.75" hidden="1" customHeight="1">
       <c r="A164" s="2">
         <v>162.0</v>
       </c>
@@ -5305,7 +5307,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" ht="15.75" hidden="1" customHeight="1">
       <c r="A166" s="2">
         <v>164.0</v>
       </c>
@@ -5316,7 +5318,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" ht="15.75" hidden="1" customHeight="1">
       <c r="A167" s="2">
         <v>165.0</v>
       </c>
@@ -5338,7 +5340,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" ht="15.75" hidden="1" customHeight="1">
       <c r="A169" s="2">
         <v>167.0</v>
       </c>
@@ -5360,7 +5362,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" ht="15.75" hidden="1" customHeight="1">
       <c r="A171" s="2">
         <v>169.0</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" ht="15.75" hidden="1" customHeight="1">
       <c r="A173" s="2">
         <v>171.0</v>
       </c>
@@ -5437,7 +5439,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" ht="15.75" hidden="1" customHeight="1">
       <c r="A178" s="2">
         <v>176.0</v>
       </c>
@@ -5448,7 +5450,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" ht="15.75" hidden="1" customHeight="1">
       <c r="A179" s="2">
         <v>177.0</v>
       </c>
@@ -5459,7 +5461,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" ht="15.75" hidden="1" customHeight="1">
       <c r="A180" s="2">
         <v>178.0</v>
       </c>
@@ -5470,7 +5472,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" ht="15.75" hidden="1" customHeight="1">
       <c r="A181" s="2">
         <v>179.0</v>
       </c>
@@ -5481,7 +5483,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" ht="15.75" hidden="1" customHeight="1">
       <c r="A182" s="2">
         <v>180.0</v>
       </c>
@@ -5514,7 +5516,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" ht="15.75" hidden="1" customHeight="1">
       <c r="A185" s="2">
         <v>183.0</v>
       </c>
@@ -5536,7 +5538,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" ht="15.75" hidden="1" customHeight="1">
       <c r="A187" s="2">
         <v>185.0</v>
       </c>
@@ -5569,7 +5571,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" ht="15.75" hidden="1" customHeight="1">
       <c r="A190" s="2">
         <v>188.0</v>
       </c>
@@ -5580,7 +5582,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" ht="15.75" hidden="1" customHeight="1">
       <c r="A191" s="2">
         <v>189.0</v>
       </c>
@@ -5602,7 +5604,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" ht="15.75" hidden="1" customHeight="1">
       <c r="A193" s="2">
         <v>191.0</v>
       </c>
@@ -5613,7 +5615,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" ht="15.75" hidden="1" customHeight="1">
       <c r="A194" s="2">
         <v>192.0</v>
       </c>
@@ -5624,7 +5626,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" ht="15.75" hidden="1" customHeight="1">
       <c r="A195" s="2">
         <v>193.0</v>
       </c>
@@ -5657,7 +5659,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" ht="15.75" hidden="1" customHeight="1">
       <c r="A198" s="2">
         <v>196.0</v>
       </c>
@@ -5668,7 +5670,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" ht="15.75" hidden="1" customHeight="1">
       <c r="A199" s="2">
         <v>197.0</v>
       </c>
@@ -5690,7 +5692,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" ht="15.75" hidden="1" customHeight="1">
       <c r="A201" s="2">
         <v>199.0</v>
       </c>
@@ -5712,7 +5714,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" ht="15.75" hidden="1" customHeight="1">
       <c r="A203" s="2">
         <v>201.0</v>
       </c>
@@ -5723,7 +5725,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" ht="15.75" hidden="1" customHeight="1">
       <c r="A204" s="2">
         <v>202.0</v>
       </c>
@@ -5745,7 +5747,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" ht="15.75" hidden="1" customHeight="1">
       <c r="A206" s="2">
         <v>204.0</v>
       </c>
@@ -5778,7 +5780,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" ht="15.75" hidden="1" customHeight="1">
       <c r="A209" s="2">
         <v>207.0</v>
       </c>
@@ -5800,7 +5802,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" ht="15.75" hidden="1" customHeight="1">
       <c r="A211" s="2">
         <v>209.0</v>
       </c>
@@ -5822,7 +5824,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" ht="15.75" hidden="1" customHeight="1">
       <c r="A213" s="2">
         <v>211.0</v>
       </c>
@@ -5877,7 +5879,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" ht="15.75" hidden="1" customHeight="1">
       <c r="A218" s="2">
         <v>216.0</v>
       </c>
@@ -5899,7 +5901,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" ht="15.75" hidden="1" customHeight="1">
       <c r="A220" s="2">
         <v>218.0</v>
       </c>
@@ -5921,7 +5923,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" ht="15.75" hidden="1" customHeight="1">
       <c r="A222" s="2">
         <v>220.0</v>
       </c>
@@ -5932,7 +5934,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" ht="15.75" hidden="1" customHeight="1">
       <c r="A223" s="2">
         <v>221.0</v>
       </c>
@@ -5965,7 +5967,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" ht="15.75" hidden="1" customHeight="1">
       <c r="A226" s="2">
         <v>224.0</v>
       </c>
@@ -5987,7 +5989,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" ht="15.75" hidden="1" customHeight="1">
       <c r="A228" s="2">
         <v>226.0</v>
       </c>
@@ -6031,7 +6033,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" ht="15.75" hidden="1" customHeight="1">
       <c r="A232" s="2">
         <v>230.0</v>
       </c>
@@ -6042,7 +6044,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" ht="15.75" hidden="1" customHeight="1">
       <c r="A233" s="2">
         <v>231.0</v>
       </c>
@@ -6053,7 +6055,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" ht="15.75" hidden="1" customHeight="1">
       <c r="A234" s="2">
         <v>232.0</v>
       </c>
@@ -6075,7 +6077,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" ht="15.75" hidden="1" customHeight="1">
       <c r="A236" s="2">
         <v>234.0</v>
       </c>
@@ -6086,7 +6088,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" ht="15.75" hidden="1" customHeight="1">
       <c r="A237" s="2">
         <v>235.0</v>
       </c>
@@ -6108,7 +6110,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" ht="15.75" hidden="1" customHeight="1">
       <c r="A239" s="2">
         <v>237.0</v>
       </c>
@@ -6119,7 +6121,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" ht="15.75" hidden="1" customHeight="1">
       <c r="A240" s="2">
         <v>238.0</v>
       </c>
@@ -6130,7 +6132,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" ht="15.75" hidden="1" customHeight="1">
       <c r="A241" s="2">
         <v>239.0</v>
       </c>
@@ -6152,7 +6154,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" ht="15.75" hidden="1" customHeight="1">
       <c r="A243" s="2">
         <v>241.0</v>
       </c>
@@ -6163,7 +6165,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" ht="15.75" hidden="1" customHeight="1">
       <c r="A244" s="2">
         <v>242.0</v>
       </c>
@@ -6174,7 +6176,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" ht="15.75" hidden="1" customHeight="1">
       <c r="A245" s="2">
         <v>243.0</v>
       </c>
@@ -6196,7 +6198,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" ht="15.75" hidden="1" customHeight="1">
       <c r="A247" s="2">
         <v>245.0</v>
       </c>
@@ -6218,7 +6220,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" ht="15.75" hidden="1" customHeight="1">
       <c r="A249" s="2">
         <v>247.0</v>
       </c>
@@ -6229,7 +6231,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" ht="15.75" hidden="1" customHeight="1">
       <c r="A250" s="2">
         <v>248.0</v>
       </c>
@@ -6240,7 +6242,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" ht="15.75" hidden="1" customHeight="1">
       <c r="A251" s="2">
         <v>249.0</v>
       </c>
@@ -6251,7 +6253,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" ht="15.75" hidden="1" customHeight="1">
       <c r="A252" s="2">
         <v>250.0</v>
       </c>
@@ -6262,7 +6264,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" ht="15.75" hidden="1" customHeight="1">
       <c r="A253" s="2">
         <v>251.0</v>
       </c>
@@ -6273,7 +6275,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" ht="15.75" hidden="1" customHeight="1">
       <c r="A254" s="2">
         <v>252.0</v>
       </c>
@@ -6295,7 +6297,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" ht="15.75" hidden="1" customHeight="1">
       <c r="A256" s="2">
         <v>254.0</v>
       </c>
@@ -6317,7 +6319,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" ht="15.75" hidden="1" customHeight="1">
       <c r="A258" s="2">
         <v>256.0</v>
       </c>
@@ -6328,7 +6330,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" ht="15.75" hidden="1" customHeight="1">
       <c r="A259" s="2">
         <v>257.0</v>
       </c>
@@ -6339,7 +6341,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" ht="15.75" hidden="1" customHeight="1">
       <c r="A260" s="2">
         <v>258.0</v>
       </c>
@@ -6350,7 +6352,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" ht="15.75" hidden="1" customHeight="1">
       <c r="A261" s="2">
         <v>259.0</v>
       </c>
@@ -6372,7 +6374,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" ht="15.75" hidden="1" customHeight="1">
       <c r="A263" s="2">
         <v>261.0</v>
       </c>
@@ -6383,7 +6385,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" ht="15.75" hidden="1" customHeight="1">
       <c r="A264" s="2">
         <v>262.0</v>
       </c>
@@ -6394,7 +6396,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" ht="15.75" hidden="1" customHeight="1">
       <c r="A265" s="2">
         <v>263.0</v>
       </c>
@@ -6416,7 +6418,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" ht="15.75" hidden="1" customHeight="1">
       <c r="A267" s="2">
         <v>265.0</v>
       </c>
@@ -6427,7 +6429,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" ht="15.75" hidden="1" customHeight="1">
       <c r="A268" s="2">
         <v>266.0</v>
       </c>
@@ -6438,7 +6440,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" ht="15.75" hidden="1" customHeight="1">
       <c r="A269" s="2">
         <v>267.0</v>
       </c>
@@ -6460,7 +6462,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" ht="15.75" hidden="1" customHeight="1">
       <c r="A271" s="2">
         <v>269.0</v>
       </c>
@@ -6482,7 +6484,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" ht="15.75" hidden="1" customHeight="1">
       <c r="A273" s="2">
         <v>271.0</v>
       </c>
@@ -6515,7 +6517,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" ht="15.75" hidden="1" customHeight="1">
       <c r="A276" s="2">
         <v>274.0</v>
       </c>
@@ -6526,7 +6528,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" ht="15.75" hidden="1" customHeight="1">
       <c r="A277" s="2">
         <v>275.0</v>
       </c>
@@ -6537,7 +6539,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" ht="15.75" hidden="1" customHeight="1">
       <c r="A278" s="2">
         <v>276.0</v>
       </c>
@@ -6548,7 +6550,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" ht="15.75" hidden="1" customHeight="1">
       <c r="A279" s="2">
         <v>277.0</v>
       </c>
@@ -6592,7 +6594,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" ht="15.75" hidden="1" customHeight="1">
       <c r="A283" s="2">
         <v>281.0</v>
       </c>
@@ -6614,7 +6616,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" ht="15.75" hidden="1" customHeight="1">
       <c r="A285" s="2">
         <v>283.0</v>
       </c>
@@ -6636,7 +6638,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" ht="15.75" hidden="1" customHeight="1">
       <c r="A287" s="2">
         <v>285.0</v>
       </c>
@@ -6647,7 +6649,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" ht="15.75" hidden="1" customHeight="1">
       <c r="A288" s="2">
         <v>286.0</v>
       </c>
@@ -6658,7 +6660,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" ht="15.75" hidden="1" customHeight="1">
       <c r="A289" s="2">
         <v>287.0</v>
       </c>
@@ -6669,7 +6671,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" ht="15.75" hidden="1" customHeight="1">
       <c r="A290" s="2">
         <v>288.0</v>
       </c>
@@ -6680,7 +6682,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" ht="15.75" hidden="1" customHeight="1">
       <c r="A291" s="2">
         <v>289.0</v>
       </c>
@@ -6702,7 +6704,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" ht="15.75" hidden="1" customHeight="1">
       <c r="A293" s="2">
         <v>291.0</v>
       </c>
@@ -6713,18 +6715,18 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" ht="15.75" hidden="1" customHeight="1">
       <c r="A294" s="2">
         <v>292.0</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C294" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="295" ht="15.75" customHeight="1">
+      <c r="C294" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="295" ht="15.75" hidden="1" customHeight="1">
       <c r="A295" s="2">
         <v>293.0</v>
       </c>
@@ -6757,7 +6759,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" ht="15.75" hidden="1" customHeight="1">
       <c r="A298" s="2">
         <v>296.0</v>
       </c>
@@ -6790,7 +6792,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" ht="15.75" hidden="1" customHeight="1">
       <c r="A301" s="2">
         <v>299.0</v>
       </c>
@@ -6812,7 +6814,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" ht="15.75" hidden="1" customHeight="1">
       <c r="A303" s="2">
         <v>301.0</v>
       </c>
@@ -6834,7 +6836,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" ht="15.75" hidden="1" customHeight="1">
       <c r="A305" s="2">
         <v>303.0</v>
       </c>
@@ -6845,7 +6847,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" ht="15.75" hidden="1" customHeight="1">
       <c r="A306" s="2">
         <v>304.0</v>
       </c>
@@ -6856,7 +6858,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" ht="15.75" hidden="1" customHeight="1">
       <c r="A307" s="2">
         <v>305.0</v>
       </c>
@@ -6864,10 +6866,10 @@
         <v>303</v>
       </c>
       <c r="C307" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="308" ht="15.75" customHeight="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="308" ht="15.75" hidden="1" customHeight="1">
       <c r="A308" s="2">
         <v>306.0</v>
       </c>
@@ -6878,7 +6880,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" ht="15.75" hidden="1" customHeight="1">
       <c r="A309" s="2">
         <v>307.0</v>
       </c>
@@ -6889,7 +6891,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" ht="15.75" hidden="1" customHeight="1">
       <c r="A310" s="2">
         <v>308.0</v>
       </c>
@@ -6922,7 +6924,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" ht="15.75" hidden="1" customHeight="1">
       <c r="A313" s="2">
         <v>311.0</v>
       </c>
@@ -6933,7 +6935,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" ht="15.75" hidden="1" customHeight="1">
       <c r="A314" s="2">
         <v>312.0</v>
       </c>
@@ -6944,7 +6946,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" ht="15.75" hidden="1" customHeight="1">
       <c r="A315" s="2">
         <v>313.0</v>
       </c>
@@ -6977,7 +6979,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" ht="15.75" hidden="1" customHeight="1">
       <c r="A318" s="2">
         <v>316.0</v>
       </c>
@@ -6988,7 +6990,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" ht="15.75" hidden="1" customHeight="1">
       <c r="A319" s="2">
         <v>317.0</v>
       </c>
@@ -7010,7 +7012,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" ht="15.75" hidden="1" customHeight="1">
       <c r="A321" s="2">
         <v>319.0</v>
       </c>
@@ -7021,7 +7023,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" ht="15.75" hidden="1" customHeight="1">
       <c r="A322" s="2">
         <v>320.0</v>
       </c>
@@ -7032,7 +7034,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" ht="15.75" hidden="1" customHeight="1">
       <c r="A323" s="2">
         <v>321.0</v>
       </c>
@@ -7043,7 +7045,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" ht="15.75" hidden="1" customHeight="1">
       <c r="A324" s="2">
         <v>322.0</v>
       </c>
@@ -7054,7 +7056,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" ht="15.75" hidden="1" customHeight="1">
       <c r="A325" s="2">
         <v>323.0</v>
       </c>
@@ -7065,7 +7067,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" ht="15.75" hidden="1" customHeight="1">
       <c r="A326" s="2">
         <v>324.0</v>
       </c>
@@ -7076,7 +7078,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" ht="15.75" hidden="1" customHeight="1">
       <c r="A327" s="2">
         <v>325.0</v>
       </c>
@@ -7087,7 +7089,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" ht="15.75" hidden="1" customHeight="1">
       <c r="A328" s="2">
         <v>326.0</v>
       </c>
@@ -7098,7 +7100,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" ht="15.75" hidden="1" customHeight="1">
       <c r="A329" s="2">
         <v>327.0</v>
       </c>
@@ -7120,7 +7122,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" ht="15.75" hidden="1" customHeight="1">
       <c r="A331" s="2">
         <v>329.0</v>
       </c>
@@ -7131,7 +7133,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" ht="15.75" hidden="1" customHeight="1">
       <c r="A332" s="2">
         <v>330.0</v>
       </c>
@@ -7153,7 +7155,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" ht="15.75" hidden="1" customHeight="1">
       <c r="A334" s="2">
         <v>332.0</v>
       </c>
@@ -7164,7 +7166,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" ht="15.75" hidden="1" customHeight="1">
       <c r="A335" s="2">
         <v>333.0</v>
       </c>
@@ -7197,7 +7199,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" ht="15.75" hidden="1" customHeight="1">
       <c r="A338" s="2">
         <v>336.0</v>
       </c>
@@ -7208,7 +7210,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" ht="15.75" hidden="1" customHeight="1">
       <c r="A339" s="2">
         <v>337.0</v>
       </c>
@@ -7219,7 +7221,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" ht="15.75" hidden="1" customHeight="1">
       <c r="A340" s="2">
         <v>338.0</v>
       </c>
@@ -7230,7 +7232,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" ht="15.75" hidden="1" customHeight="1">
       <c r="A341" s="2">
         <v>339.0</v>
       </c>
@@ -7252,7 +7254,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" ht="15.75" hidden="1" customHeight="1">
       <c r="A343" s="2">
         <v>341.0</v>
       </c>
@@ -7263,7 +7265,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" ht="15.75" hidden="1" customHeight="1">
       <c r="A344" s="2">
         <v>342.0</v>
       </c>
@@ -7274,7 +7276,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" ht="15.75" hidden="1" customHeight="1">
       <c r="A345" s="2">
         <v>343.0</v>
       </c>
@@ -7285,7 +7287,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" ht="15.75" hidden="1" customHeight="1">
       <c r="A346" s="2">
         <v>344.0</v>
       </c>
@@ -7307,7 +7309,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" ht="15.75" hidden="1" customHeight="1">
       <c r="A348" s="2">
         <v>346.0</v>
       </c>
@@ -7351,7 +7353,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" ht="15.75" hidden="1" customHeight="1">
       <c r="A352" s="2">
         <v>350.0</v>
       </c>
@@ -7362,7 +7364,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" ht="15.75" hidden="1" customHeight="1">
       <c r="A353" s="2">
         <v>351.0</v>
       </c>
@@ -7373,7 +7375,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" ht="15.75" hidden="1" customHeight="1">
       <c r="A354" s="2">
         <v>352.0</v>
       </c>
@@ -7395,7 +7397,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" ht="15.75" hidden="1" customHeight="1">
       <c r="A356" s="2">
         <v>354.0</v>
       </c>
@@ -7417,7 +7419,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" ht="15.75" hidden="1" customHeight="1">
       <c r="A358" s="2">
         <v>356.0</v>
       </c>
@@ -7439,7 +7441,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" ht="15.75" hidden="1" customHeight="1">
       <c r="A360" s="2">
         <v>358.0</v>
       </c>
@@ -7483,7 +7485,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" ht="15.75" hidden="1" customHeight="1">
       <c r="A364" s="2">
         <v>362.0</v>
       </c>
@@ -7505,7 +7507,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" ht="15.75" hidden="1" customHeight="1">
       <c r="A366" s="2">
         <v>364.0</v>
       </c>
@@ -7516,7 +7518,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" ht="15.75" hidden="1" customHeight="1">
       <c r="A367" s="2">
         <v>365.0</v>
       </c>
@@ -7527,7 +7529,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" ht="15.75" hidden="1" customHeight="1">
       <c r="A368" s="2">
         <v>366.0</v>
       </c>
@@ -7538,7 +7540,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" ht="15.75" hidden="1" customHeight="1">
       <c r="A369" s="2">
         <v>367.0</v>
       </c>
@@ -7549,7 +7551,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" ht="15.75" hidden="1" customHeight="1">
       <c r="A370" s="2">
         <v>368.0</v>
       </c>
@@ -7571,7 +7573,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" ht="15.75" hidden="1" customHeight="1">
       <c r="A372" s="2">
         <v>370.0</v>
       </c>
@@ -7593,7 +7595,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" ht="15.75" hidden="1" customHeight="1">
       <c r="A374" s="2">
         <v>372.0</v>
       </c>
@@ -7604,7 +7606,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" ht="15.75" hidden="1" customHeight="1">
       <c r="A375" s="2">
         <v>373.0</v>
       </c>
@@ -7615,7 +7617,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" ht="15.75" hidden="1" customHeight="1">
       <c r="A376" s="2">
         <v>374.0</v>
       </c>
@@ -7626,7 +7628,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" ht="15.75" hidden="1" customHeight="1">
       <c r="A377" s="2">
         <v>375.0</v>
       </c>
@@ -7659,7 +7661,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" ht="15.75" hidden="1" customHeight="1">
       <c r="A380" s="2">
         <v>378.0</v>
       </c>
@@ -7700,7 +7702,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" ht="15.75" hidden="1" customHeight="1">
       <c r="A384" s="2">
         <v>382.0</v>
       </c>
@@ -7711,7 +7713,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" ht="15.75" hidden="1" customHeight="1">
       <c r="A385" s="2">
         <v>383.0</v>
       </c>
@@ -7722,7 +7724,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" ht="15.75" hidden="1" customHeight="1">
       <c r="A386" s="2">
         <v>384.0</v>
       </c>
@@ -7733,7 +7735,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" ht="15.75" hidden="1" customHeight="1">
       <c r="A387" s="2">
         <v>385.0</v>
       </c>
@@ -7744,7 +7746,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" ht="15.75" hidden="1" customHeight="1">
       <c r="A388" s="2">
         <v>386.0</v>
       </c>
@@ -7755,7 +7757,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" ht="15.75" hidden="1" customHeight="1">
       <c r="A389" s="2">
         <v>387.0</v>
       </c>
@@ -7766,7 +7768,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" ht="15.75" hidden="1" customHeight="1">
       <c r="A390" s="2">
         <v>388.0</v>
       </c>
@@ -7777,7 +7779,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" ht="15.75" hidden="1" customHeight="1">
       <c r="A391" s="2">
         <v>389.0</v>
       </c>
@@ -7799,7 +7801,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" ht="15.75" hidden="1" customHeight="1">
       <c r="A393" s="2">
         <v>391.0</v>
       </c>
@@ -7810,7 +7812,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" ht="15.75" hidden="1" customHeight="1">
       <c r="A394" s="2">
         <v>392.0</v>
       </c>
@@ -7832,7 +7834,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" ht="15.75" hidden="1" customHeight="1">
       <c r="A396" s="2">
         <v>394.0</v>
       </c>
@@ -7843,7 +7845,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" ht="15.75" hidden="1" customHeight="1">
       <c r="A397" s="2">
         <v>395.0</v>
       </c>
@@ -7854,7 +7856,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" ht="15.75" hidden="1" customHeight="1">
       <c r="A398" s="2">
         <v>396.0</v>
       </c>
@@ -7865,7 +7867,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" ht="15.75" hidden="1" customHeight="1">
       <c r="A399" s="2">
         <v>397.0</v>
       </c>
@@ -7876,7 +7878,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" ht="15.75" hidden="1" customHeight="1">
       <c r="A400" s="2">
         <v>398.0</v>
       </c>
@@ -7898,7 +7900,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" ht="15.75" hidden="1" customHeight="1">
       <c r="A402" s="2">
         <v>400.0</v>
       </c>
@@ -7920,7 +7922,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" ht="15.75" hidden="1" customHeight="1">
       <c r="A404" s="2">
         <v>402.0</v>
       </c>
@@ -7931,7 +7933,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" ht="15.75" hidden="1" customHeight="1">
       <c r="A405" s="2">
         <v>403.0</v>
       </c>
@@ -7953,7 +7955,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" ht="15.75" hidden="1" customHeight="1">
       <c r="A407" s="2">
         <v>405.0</v>
       </c>
@@ -7975,7 +7977,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" ht="15.75" hidden="1" customHeight="1">
       <c r="A409" s="2">
         <v>407.0</v>
       </c>
@@ -7986,7 +7988,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" ht="15.75" hidden="1" customHeight="1">
       <c r="A410" s="2">
         <v>408.0</v>
       </c>
@@ -7997,7 +7999,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" ht="15.75" hidden="1" customHeight="1">
       <c r="A411" s="2">
         <v>409.0</v>
       </c>
@@ -8008,7 +8010,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" ht="15.75" hidden="1" customHeight="1">
       <c r="A412" s="2">
         <v>410.0</v>
       </c>
@@ -8019,7 +8021,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" ht="15.75" hidden="1" customHeight="1">
       <c r="A413" s="2">
         <v>411.0</v>
       </c>
@@ -8030,7 +8032,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" ht="15.75" hidden="1" customHeight="1">
       <c r="A414" s="2">
         <v>412.0</v>
       </c>
@@ -8041,7 +8043,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" ht="15.75" hidden="1" customHeight="1">
       <c r="A415" s="2">
         <v>413.0</v>
       </c>
@@ -8052,7 +8054,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" ht="15.75" hidden="1" customHeight="1">
       <c r="A416" s="2">
         <v>414.0</v>
       </c>
@@ -8063,7 +8065,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" ht="15.75" hidden="1" customHeight="1">
       <c r="A417" s="2">
         <v>415.0</v>
       </c>
@@ -8107,7 +8109,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" ht="15.75" hidden="1" customHeight="1">
       <c r="A421" s="2">
         <v>419.0</v>
       </c>
@@ -8129,7 +8131,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" ht="15.75" hidden="1" customHeight="1">
       <c r="A423" s="2">
         <v>421.0</v>
       </c>
@@ -8140,7 +8142,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" ht="15.75" hidden="1" customHeight="1">
       <c r="A424" s="2">
         <v>422.0</v>
       </c>
@@ -8162,7 +8164,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" ht="15.75" hidden="1" customHeight="1">
       <c r="A426" s="2">
         <v>424.0</v>
       </c>
@@ -8173,7 +8175,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" ht="15.75" hidden="1" customHeight="1">
       <c r="A427" s="2">
         <v>425.0</v>
       </c>
@@ -8184,7 +8186,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" ht="15.75" hidden="1" customHeight="1">
       <c r="A428" s="2">
         <v>426.0</v>
       </c>
@@ -8195,7 +8197,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" ht="15.75" hidden="1" customHeight="1">
       <c r="A429" s="2">
         <v>427.0</v>
       </c>
@@ -8206,7 +8208,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" ht="15.75" hidden="1" customHeight="1">
       <c r="A430" s="2">
         <v>428.0</v>
       </c>
@@ -8217,7 +8219,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" ht="15.75" hidden="1" customHeight="1">
       <c r="A431" s="2">
         <v>429.0</v>
       </c>
@@ -8228,7 +8230,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" ht="15.75" hidden="1" customHeight="1">
       <c r="A432" s="2">
         <v>430.0</v>
       </c>
@@ -8239,7 +8241,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" ht="15.75" hidden="1" customHeight="1">
       <c r="A433" s="2">
         <v>431.0</v>
       </c>
@@ -8272,7 +8274,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" ht="15.75" hidden="1" customHeight="1">
       <c r="A436" s="2">
         <v>434.0</v>
       </c>
@@ -8294,7 +8296,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" ht="15.75" hidden="1" customHeight="1">
       <c r="A438" s="2">
         <v>436.0</v>
       </c>
@@ -8316,7 +8318,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" ht="15.75" hidden="1" customHeight="1">
       <c r="A440" s="2">
         <v>438.0</v>
       </c>
@@ -8327,7 +8329,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" ht="15.75" hidden="1" customHeight="1">
       <c r="A441" s="2">
         <v>439.0</v>
       </c>
@@ -8360,7 +8362,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" ht="15.75" hidden="1" customHeight="1">
       <c r="A444" s="2">
         <v>442.0</v>
       </c>
@@ -8371,7 +8373,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" ht="15.75" hidden="1" customHeight="1">
       <c r="A445" s="2">
         <v>443.0</v>
       </c>
@@ -8404,7 +8406,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" ht="15.75" hidden="1" customHeight="1">
       <c r="A448" s="2">
         <v>446.0</v>
       </c>
@@ -8437,7 +8439,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" ht="15.75" hidden="1" customHeight="1">
       <c r="A451" s="2">
         <v>449.0</v>
       </c>
@@ -8448,7 +8450,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" ht="15.75" hidden="1" customHeight="1">
       <c r="A452" s="2">
         <v>450.0</v>
       </c>
@@ -8459,7 +8461,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" ht="15.75" hidden="1" customHeight="1">
       <c r="A453" s="2">
         <v>451.0</v>
       </c>
@@ -8467,10 +8469,10 @@
         <v>429</v>
       </c>
       <c r="C453" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="454" ht="15.75" customHeight="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="454" ht="15.75" hidden="1" customHeight="1">
       <c r="A454" s="2">
         <v>452.0</v>
       </c>
@@ -8481,7 +8483,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" ht="15.75" hidden="1" customHeight="1">
       <c r="A455" s="2">
         <v>453.0</v>
       </c>
@@ -8503,7 +8505,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" ht="15.75" hidden="1" customHeight="1">
       <c r="A457" s="2">
         <v>455.0</v>
       </c>
@@ -8547,7 +8549,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" ht="15.75" hidden="1" customHeight="1">
       <c r="A461" s="2">
         <v>459.0</v>
       </c>
@@ -8580,7 +8582,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" ht="15.75" hidden="1" customHeight="1">
       <c r="A464" s="2">
         <v>462.0</v>
       </c>
@@ -8602,7 +8604,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" ht="15.75" hidden="1" customHeight="1">
       <c r="A466" s="2">
         <v>464.0</v>
       </c>
@@ -8635,7 +8637,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" ht="15.75" hidden="1" customHeight="1">
       <c r="A469" s="2">
         <v>467.0</v>
       </c>
@@ -8657,7 +8659,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" ht="15.75" hidden="1" customHeight="1">
       <c r="A471" s="2">
         <v>469.0</v>
       </c>
@@ -8668,7 +8670,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" ht="15.75" hidden="1" customHeight="1">
       <c r="A472" s="2">
         <v>470.0</v>
       </c>
@@ -8679,7 +8681,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" ht="15.75" hidden="1" customHeight="1">
       <c r="A473" s="2">
         <v>471.0</v>
       </c>
@@ -8690,7 +8692,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" ht="15.75" hidden="1" customHeight="1">
       <c r="A474" s="2">
         <v>472.0</v>
       </c>
@@ -8712,7 +8714,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" ht="15.75" hidden="1" customHeight="1">
       <c r="A476" s="2">
         <v>474.0</v>
       </c>
@@ -8734,7 +8736,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" ht="15.75" hidden="1" customHeight="1">
       <c r="A478" s="2">
         <v>476.0</v>
       </c>
@@ -8745,7 +8747,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" ht="15.75" hidden="1" customHeight="1">
       <c r="A479" s="2">
         <v>477.0</v>
       </c>
@@ -8756,7 +8758,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" ht="15.75" hidden="1" customHeight="1">
       <c r="A480" s="2">
         <v>478.0</v>
       </c>
@@ -8767,7 +8769,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" ht="15.75" hidden="1" customHeight="1">
       <c r="A481" s="2">
         <v>479.0</v>
       </c>
@@ -8778,7 +8780,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" ht="15.75" hidden="1" customHeight="1">
       <c r="A482" s="2">
         <v>480.0</v>
       </c>
@@ -8789,7 +8791,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" ht="15.75" hidden="1" customHeight="1">
       <c r="A483" s="2">
         <v>481.0</v>
       </c>
@@ -8800,7 +8802,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" ht="15.75" hidden="1" customHeight="1">
       <c r="A484" s="2">
         <v>482.0</v>
       </c>
@@ -8822,7 +8824,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" ht="15.75" hidden="1" customHeight="1">
       <c r="A486" s="2">
         <v>484.0</v>
       </c>
@@ -8833,7 +8835,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" ht="15.75" hidden="1" customHeight="1">
       <c r="A487" s="2">
         <v>485.0</v>
       </c>
@@ -8844,7 +8846,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" ht="15.75" hidden="1" customHeight="1">
       <c r="A488" s="2">
         <v>486.0</v>
       </c>
@@ -8855,7 +8857,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" ht="15.75" hidden="1" customHeight="1">
       <c r="A489" s="2">
         <v>487.0</v>
       </c>
@@ -8877,7 +8879,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" ht="15.75" hidden="1" customHeight="1">
       <c r="A491" s="2">
         <v>489.0</v>
       </c>
@@ -8888,7 +8890,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" ht="15.75" hidden="1" customHeight="1">
       <c r="A492" s="2">
         <v>490.0</v>
       </c>
@@ -8910,7 +8912,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" ht="15.75" hidden="1" customHeight="1">
       <c r="A494" s="2">
         <v>492.0</v>
       </c>
@@ -8921,7 +8923,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" ht="15.75" hidden="1" customHeight="1">
       <c r="A495" s="2">
         <v>493.0</v>
       </c>
@@ -8943,7 +8945,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" ht="15.75" hidden="1" customHeight="1">
       <c r="A497" s="2">
         <v>495.0</v>
       </c>
@@ -8965,7 +8967,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" ht="15.75" hidden="1" customHeight="1">
       <c r="A499" s="2">
         <v>497.0</v>
       </c>
@@ -8976,7 +8978,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" ht="15.75" hidden="1" customHeight="1">
       <c r="A500" s="2">
         <v>498.0</v>
       </c>
@@ -8987,7 +8989,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" ht="15.75" hidden="1" customHeight="1">
       <c r="A501" s="2">
         <v>499.0</v>
       </c>
@@ -8998,506 +9000,513 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="503" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="504" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="505" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="506" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="507" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="508" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="509" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="510" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="511" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="512" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="513" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="514" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="515" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="516" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="517" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="518" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="519" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="520" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="521" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="522" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="523" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="524" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="525" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="526" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="527" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="528" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="529" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="530" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="531" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="532" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="533" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="534" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="535" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="536" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="537" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="538" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="539" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="540" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="541" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="542" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="543" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="544" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="545" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="546" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="547" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="548" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="549" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="550" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="551" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="552" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="553" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="554" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="555" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="556" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="557" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="558" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="559" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="560" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="561" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="562" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="563" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="564" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="565" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="566" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="567" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="568" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="569" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="570" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="571" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="572" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="573" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="574" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="575" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="576" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="577" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="578" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="579" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="580" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="581" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="582" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="583" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="584" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="585" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="586" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="587" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="588" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="589" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="590" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="591" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="592" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="593" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="594" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="595" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="596" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="597" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="598" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="599" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="600" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="601" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="602" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="603" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="604" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="605" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="606" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="607" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="608" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="609" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="610" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="611" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="612" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="613" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="614" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="615" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="616" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="617" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="618" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="619" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="620" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="621" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="622" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="623" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="624" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="625" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="626" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="627" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="628" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="629" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="630" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="631" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="632" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="633" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="634" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="635" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="636" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="637" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="638" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="639" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="640" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="641" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="642" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="643" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="644" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="645" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="646" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="647" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="648" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="649" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="650" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="651" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="652" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="653" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="654" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="655" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="656" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="657" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="658" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="659" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="660" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="661" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="662" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="663" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="664" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="665" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="666" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="667" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="668" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="669" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="670" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="671" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="672" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="673" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="674" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="675" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="676" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="677" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="678" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="679" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="680" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="681" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="682" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="683" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="684" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="685" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="686" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="687" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="688" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="689" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="690" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="691" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="692" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="693" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="694" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="695" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="696" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="697" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="698" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="699" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="700" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="701" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="702" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="703" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="704" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="705" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="706" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="707" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="708" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="709" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="710" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="711" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="712" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="713" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="714" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="715" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="716" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="717" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="718" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="719" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="720" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="721" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="722" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="723" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="724" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="725" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="726" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="727" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="728" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="729" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="730" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="731" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="732" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="733" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="734" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="735" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="736" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="737" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="738" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="739" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="740" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="741" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="742" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="743" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="744" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="745" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="746" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="747" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="748" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="749" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="750" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="751" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="752" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="753" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="754" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="755" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="756" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="757" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="758" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="759" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="760" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="761" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="762" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="763" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="764" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="765" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="766" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="767" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="768" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="769" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="770" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="771" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="772" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="773" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="774" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="775" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="776" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="777" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="778" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="779" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="780" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="781" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="782" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="783" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="784" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="785" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="786" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="787" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="788" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="789" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="790" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="791" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="792" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="793" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="794" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="795" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="796" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="797" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="798" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="799" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="800" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="801" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="802" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="803" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="804" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="805" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="806" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="807" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="808" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="809" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="810" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="811" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="812" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="813" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="814" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="815" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="816" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="817" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="818" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="819" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="820" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="821" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="822" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="823" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="824" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="825" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="826" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="827" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="828" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="829" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="830" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="831" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="832" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="833" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="834" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="835" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="836" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="837" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="838" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="839" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="840" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="841" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="842" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="843" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="844" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="845" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="846" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="847" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="848" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="849" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="850" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="851" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="852" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="853" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="854" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="855" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="856" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="857" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="858" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="859" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="860" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="861" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="862" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="863" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="864" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="865" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="866" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="867" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="868" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="869" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="870" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="871" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="872" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="873" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="874" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="875" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="876" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="877" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="878" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="879" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="880" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="881" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="882" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="883" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="884" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="885" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="886" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="887" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="888" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="889" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="890" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="891" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="892" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="893" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="894" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="895" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="896" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="897" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="898" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="899" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="900" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="901" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="902" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="903" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="904" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="905" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="906" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="907" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="908" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="909" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="910" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="911" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="912" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="913" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="914" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="915" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="916" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="917" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="918" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="919" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="920" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="921" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="922" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="923" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="924" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="925" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="926" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="927" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="928" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="929" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="930" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="931" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="932" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="933" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="934" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="935" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="936" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="937" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="938" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="939" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="940" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="941" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="942" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="943" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="944" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="945" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="946" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="947" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="948" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="949" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="950" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="951" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="952" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="953" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="954" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="955" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="956" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="957" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="958" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="959" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="960" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="961" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="962" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="963" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="964" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="965" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="966" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="967" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="968" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="969" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="970" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="971" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="972" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="973" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="974" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="975" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="976" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="977" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="978" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="979" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="980" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="981" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="982" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="983" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="984" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="985" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="986" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="987" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="988" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="989" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="990" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="991" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="992" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="993" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="994" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="995" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="996" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="997" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="998" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="999" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="1000" ht="15.75" hidden="1" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="$C$1:$C$1000">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
